--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD07D664-89A4-6742-8DCE-20389300956B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>TODO List</t>
   </si>
@@ -57,13 +56,52 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Person</t>
+    <t>Make Sprites</t>
+  </si>
+  <si>
+    <t>Design a class to handle level generation</t>
+  </si>
+  <si>
+    <t>Design a class to hold map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct player controllers </t>
+  </si>
+  <si>
+    <t>Build Enemy AI</t>
+  </si>
+  <si>
+    <t>Iterate between levels</t>
+  </si>
+  <si>
+    <t>Have a home UI</t>
+  </si>
+  <si>
+    <t>Character/enemy interaction</t>
+  </si>
+  <si>
+    <t>Item generation and abilites</t>
+  </si>
+  <si>
+    <t>Add small story</t>
+  </si>
+  <si>
+    <t>Leaderboard class</t>
+  </si>
+  <si>
+    <t>Leaderboard UI</t>
+  </si>
+  <si>
+    <t>Learn bluetooth</t>
+  </si>
+  <si>
+    <t>Use bluetooth to allow multiplayer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -73,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +139,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC5842"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -127,12 +183,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFC5842"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -440,19 +505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -464,7 +529,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -474,9 +539,7 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -487,7 +550,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -498,28 +570,161 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4">
-        <f>SUM(B3:B13)</f>
-        <v>0</v>
+      <c r="B18" s="4">
+        <f>SUM(B3:B16)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
